--- a/biology/Médecine/ACTA2/ACTA2.xlsx
+++ b/biology/Médecine/ACTA2/ACTA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ACTA2 (pour « actine alpha 2 ») est une gène codant pour la protéine α-SMA qui est l'une des isoforme de l'actine. Son gène est ACTA2 situé sur le chromosome 10 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mutations du gène entraînent une prolifération des cellules musculaires lisses des vaisseaux sanguins, avec rétrécissement de la lumière de ce dernier, provoquant une atteinte vasculaire variable : anévrisme aortique avec un risque élevé de dissection aortique[5], maladie coronarienne survenant précocement, accident vasculaire-cérébral, maladie de moyamoya[6]. Il peut exister d'autres atteintes musculaires : hypertension artérielle pulmonaire, vessie hypotonique[7], syndrome de Prune Belly avec manifestations cutanées[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mutations du gène entraînent une prolifération des cellules musculaires lisses des vaisseaux sanguins, avec rétrécissement de la lumière de ce dernier, provoquant une atteinte vasculaire variable : anévrisme aortique avec un risque élevé de dissection aortique, maladie coronarienne survenant précocement, accident vasculaire-cérébral, maladie de moyamoya. Il peut exister d'autres atteintes musculaires : hypertension artérielle pulmonaire, vessie hypotonique, syndrome de Prune Belly avec manifestations cutanées.
 </t>
         </is>
       </c>
